--- a/Resources/user_data.xlsx
+++ b/Resources/user_data.xlsx
@@ -5,26 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/RobotProject/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/ZconnectWeb/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A201E5D-747E-EB4C-B0D4-6DF72CCA77CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F56D16-BDFA-B34D-88D3-CD2B16A5FCC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="RegistrationData" sheetId="2" r:id="rId2"/>
     <sheet name="HomeMenu" sheetId="3" r:id="rId3"/>
-    <sheet name="CareAndClaims" sheetId="4" r:id="rId4"/>
-    <sheet name="CostEstimator" sheetId="5" r:id="rId5"/>
+    <sheet name="SideBar" sheetId="6" r:id="rId4"/>
+    <sheet name="CareAndClaims" sheetId="4" r:id="rId5"/>
+    <sheet name="CostEstimator" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="123">
   <si>
     <t>Url</t>
   </si>
@@ -372,6 +373,27 @@
   </si>
   <si>
     <t>/notifications</t>
+  </si>
+  <si>
+    <t>Benefit Information</t>
+  </si>
+  <si>
+    <t>My Health</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>How to Video</t>
+  </si>
+  <si>
+    <t>Billing</t>
   </si>
 </sst>
 </file>
@@ -8449,7 +8471,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8591,6 +8613,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDCE12-E4FA-BC4E-A800-7A71F6512E1E}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8697,7 +8774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Resources/user_data.xlsx
+++ b/Resources/user_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/ZconnectWeb/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F56D16-BDFA-B34D-88D3-CD2B16A5FCC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60815E4F-2FC5-F140-881A-EC21B967B65E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
   <si>
     <t>Url</t>
   </si>
@@ -394,13 +394,34 @@
   </si>
   <si>
     <t>Billing</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Submenus</t>
+  </si>
+  <si>
+    <t>Care History, EOB</t>
+  </si>
+  <si>
+    <t>Balanced Billing</t>
+  </si>
+  <si>
+    <t>SBC Document, Services Contact Info</t>
+  </si>
+  <si>
+    <t>Campaign Messages, Recommendations</t>
+  </si>
+  <si>
+    <t>Privacy Policy, Terms and Condition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -447,6 +468,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -480,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -531,6 +559,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8614,51 +8643,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDCE12-E4FA-BC4E-A800-7A71F6512E1E}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Resources/user_data.xlsx
+++ b/Resources/user_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/RobotProject/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/ZconnectWeb/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A201E5D-747E-EB4C-B0D4-6DF72CCA77CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D664521-B6F7-E243-AAF2-4C37052D48DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
   <si>
     <t>Url</t>
   </si>
@@ -372,6 +372,36 @@
   </si>
   <si>
     <t>/notifications</t>
+  </si>
+  <si>
+    <t>/idCard</t>
+  </si>
+  <si>
+    <t>/benefits</t>
+  </si>
+  <si>
+    <t>/spend-summary</t>
+  </si>
+  <si>
+    <t>/videos-screen</t>
+  </si>
+  <si>
+    <t>/open-enrollment</t>
+  </si>
+  <si>
+    <t>/services</t>
+  </si>
+  <si>
+    <t>/cost-estimator-result</t>
+  </si>
+  <si>
+    <t>/provider-search-by-group</t>
+  </si>
+  <si>
+    <t>/chat</t>
+  </si>
+  <si>
+    <t>https://www.teladoc.com/</t>
   </si>
 </sst>
 </file>
@@ -8450,13 +8480,14 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8506,6 +8537,9 @@
       <c r="B4" s="10" t="s">
         <v>110</v>
       </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
@@ -8514,6 +8548,9 @@
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
@@ -8522,11 +8559,17 @@
       <c r="B6" t="s">
         <v>101</v>
       </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>102</v>
       </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
@@ -8535,6 +8578,9 @@
       <c r="B8" s="14" t="s">
         <v>103</v>
       </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -8543,6 +8589,9 @@
       <c r="B9" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
@@ -8551,6 +8600,9 @@
       <c r="B10" s="13" t="s">
         <v>105</v>
       </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
@@ -8559,6 +8611,9 @@
       <c r="B11" t="s">
         <v>111</v>
       </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
@@ -8567,6 +8622,9 @@
       <c r="B12" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
@@ -8575,6 +8633,9 @@
       <c r="B13" s="13" t="s">
         <v>113</v>
       </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
@@ -8582,6 +8643,9 @@
       </c>
       <c r="B14" s="13" t="s">
         <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/user_data.xlsx
+++ b/Resources/user_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/ZconnectWeb/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60815E4F-2FC5-F140-881A-EC21B967B65E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2FE5BF-8EB5-164D-AF0A-9CBDE68F1D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="139">
   <si>
     <t>Url</t>
   </si>
@@ -414,7 +414,34 @@
     <t>Campaign Messages, Recommendations</t>
   </si>
   <si>
-    <t>Privacy Policy, Terms and Condition</t>
+    <t>Privacy Policy, Terms &amp; Condition</t>
+  </si>
+  <si>
+    <t>Headings</t>
+  </si>
+  <si>
+    <t>/help</t>
+  </si>
+  <si>
+    <t>/videos-screen</t>
+  </si>
+  <si>
+    <t>/services</t>
+  </si>
+  <si>
+    <t>Notifications, Notifications</t>
+  </si>
+  <si>
+    <t>Balance Bills</t>
+  </si>
+  <si>
+    <t>/balanced-bill</t>
+  </si>
+  <si>
+    <t>/notifications, /recommendations</t>
+  </si>
+  <si>
+    <t>chat?question=Hi&amp;user=zConnect%20AI</t>
   </si>
 </sst>
 </file>
@@ -8643,59 +8670,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDCE12-E4FA-BC4E-A800-7A71F6512E1E}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -8703,25 +8762,46 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>121</v>
       </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" location="/share/document/, /services" display="https://zphad.awsapps.com/workdocs/index.html#/share/document/, /services" xr:uid="{52250118-D963-CA47-A3B6-0E0358487517}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Resources/user_data.xlsx
+++ b/Resources/user_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/ZconnectWeb/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2FE5BF-8EB5-164D-AF0A-9CBDE68F1D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA7925D-4CA9-4949-9C37-02B189C7738C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="147">
   <si>
     <t>Url</t>
   </si>
@@ -442,6 +442,30 @@
   </si>
   <si>
     <t>chat?question=Hi&amp;user=zConnect%20AI</t>
+  </si>
+  <si>
+    <t>/idCard</t>
+  </si>
+  <si>
+    <t>/benefits</t>
+  </si>
+  <si>
+    <t>/spend-summary</t>
+  </si>
+  <si>
+    <t>https://www.teladoc.com/</t>
+  </si>
+  <si>
+    <t>/open-enrollment</t>
+  </si>
+  <si>
+    <t>/cost-estimator-result</t>
+  </si>
+  <si>
+    <t>/provider-search-by-group</t>
+  </si>
+  <si>
+    <t>/chat</t>
   </si>
 </sst>
 </file>
@@ -8527,14 +8551,15 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8584,6 +8609,9 @@
       <c r="B4" s="10" t="s">
         <v>110</v>
       </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
@@ -8592,6 +8620,9 @@
       <c r="B5" s="10" t="s">
         <v>64</v>
       </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
@@ -8600,11 +8631,17 @@
       <c r="B6" t="s">
         <v>101</v>
       </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>102</v>
       </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
@@ -8613,6 +8650,9 @@
       <c r="B8" s="14" t="s">
         <v>103</v>
       </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -8621,6 +8661,9 @@
       <c r="B9" s="13" t="s">
         <v>104</v>
       </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
@@ -8629,6 +8672,9 @@
       <c r="B10" s="13" t="s">
         <v>105</v>
       </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
@@ -8637,6 +8683,9 @@
       <c r="B11" t="s">
         <v>111</v>
       </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
@@ -8645,6 +8694,9 @@
       <c r="B12" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
@@ -8653,6 +8705,9 @@
       <c r="B13" s="13" t="s">
         <v>113</v>
       </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
@@ -8660,6 +8715,9 @@
       </c>
       <c r="B14" s="13" t="s">
         <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -8672,7 +8730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDCE12-E4FA-BC4E-A800-7A71F6512E1E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Resources/user_data.xlsx
+++ b/Resources/user_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saurav.tuladhar/Automation/ZconnectWeb/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D664521-B6F7-E243-AAF2-4C37052D48DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507622C-8988-0541-B372-0A09CB335EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
   <si>
     <t>Url</t>
   </si>
@@ -402,6 +402,60 @@
   </si>
   <si>
     <t>https://www.teladoc.com/</t>
+  </si>
+  <si>
+    <t>Provider Category</t>
+  </si>
+  <si>
+    <t>Speciality</t>
+  </si>
+  <si>
+    <t>AUDIOLOGY</t>
+  </si>
+  <si>
+    <t>AUDIOLOGY, SPEECH THERAPY</t>
+  </si>
+  <si>
+    <t>CHIROPRACTOR</t>
+  </si>
+  <si>
+    <t>CHIROPRACTOR/DCM</t>
+  </si>
+  <si>
+    <t>CRITICAL CARE MED, EMERGENCY MEDICINE</t>
+  </si>
+  <si>
+    <t>EMERGENCY &amp; CRITICAL CARE</t>
+  </si>
+  <si>
+    <t>ALLERGY &amp; IMMUNOLOGY</t>
+  </si>
+  <si>
+    <t>BEHAVIORAL HEALTH</t>
+  </si>
+  <si>
+    <t>BEHAVIORAL HEALTH, COUNSELOR, PHYSICAL MEDICINE &amp; REHAB, PSYCHIATRY, PSYCHOLOGIST, SLEEP MEDICINE</t>
+  </si>
+  <si>
+    <t>ACUPUNCTURE</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>GENERAL DENTISTRY, ORAL SURGEON</t>
+  </si>
+  <si>
+    <t>URGENT CARE</t>
+  </si>
+  <si>
+    <t>ANESTHESIOLOGY</t>
+  </si>
+  <si>
+    <t>CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>CARDIOLOGY, CARDIOVASCULAR DIS/CARDIOLOGY, ELECTROPHYSIOLOGY</t>
   </si>
 </sst>
 </file>
@@ -488,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,6 +592,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8479,7 +8536,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -8766,48 +8823,137 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21" style="16" customWidth="1"/>
+    <col min="3" max="3" width="48" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="16"/>
+    <col min="5" max="5" width="27.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>